--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3069902.733794238</v>
+        <v>3067357.547720953</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8662070.799216904</v>
+        <v>8662070.799216902</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>126.9105741582251</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>123.2067794713425</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>181.5464716967364</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964035</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9612553036279</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>166.9467815444302</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>53.12040312879424</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>243.2577348836416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>111.5512144998715</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>42.53134576113764</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730883</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.0633098883605</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>426.3476790823676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>574.2607726647607</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1452.061221751177</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1452.061221751177</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1452.061221751177</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>1066.272969152933</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>655.2870643633255</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>237.3232562615124</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.661061815299</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.661061815299</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1838.661061815299</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4729,40 +4729,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.625845149689</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="C8" t="n">
-        <v>1390.663328209277</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D8" t="n">
-        <v>1032.397629602526</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="E8" t="n">
-        <v>646.6093770042821</v>
+        <v>915.8923501605201</v>
       </c>
       <c r="F8" t="n">
-        <v>235.6234722146746</v>
+        <v>908.9468494113166</v>
       </c>
       <c r="G8" t="n">
-        <v>222.5760944915061</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1385.562664925753</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1579.896877817736</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2127.058082584813</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.625845149689</v>
+        <v>1544.8259834174</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.625845149689</v>
+        <v>1544.8259834174</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5836898399692</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>800.9452297060877</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1441.490579173192</v>
+        <v>1548.79220526824</v>
       </c>
       <c r="N9" t="n">
-        <v>1640.147320825857</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>332.3837969656967</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>184.4707033833035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>1000.220690422341</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>711.0685140000211</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5057,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.986481927969</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5595,22 +5595,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5738,7 +5738,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5975,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,10 +6361,10 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
         <v>261.0127623330919</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6920,10 +6920,10 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516142</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
-        <v>1804.131916132773</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2356.04164637206</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7151,28 +7151,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7190,31 +7190,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735989</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912058</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060857</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482838</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8219,7 +8219,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>216.3441640494769</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>366.5683748125719</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>43.26526345294937</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>105.8542358274168</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>138.4949402405069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125669</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>731311.4914411042</v>
+        <v>731311.4914411041</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>731311.4914411041</v>
+        <v>731311.4914411042</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846415</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.609736506</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.609736506</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682737</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682769</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682769</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682767</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5677.536566682767</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682751</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-184863.868356346</v>
+        <v>-184863.8683563461</v>
       </c>
       <c r="C6" t="n">
-        <v>405104.0108581979</v>
+        <v>405104.0108581987</v>
       </c>
       <c r="D6" t="n">
         <v>249300.204764403</v>
       </c>
       <c r="E6" t="n">
-        <v>-191778.1480348907</v>
+        <v>-191812.8859603262</v>
       </c>
       <c r="F6" t="n">
-        <v>579274.5433459162</v>
+        <v>579239.80542048</v>
       </c>
       <c r="G6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204806</v>
       </c>
       <c r="H6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204801</v>
       </c>
       <c r="I6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="J6" t="n">
-        <v>402851.3241533228</v>
+        <v>402816.586227887</v>
       </c>
       <c r="K6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="L6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204802</v>
       </c>
       <c r="M6" t="n">
-        <v>455066.0326378572</v>
+        <v>455031.2947124216</v>
       </c>
       <c r="N6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204806</v>
       </c>
       <c r="O6" t="n">
-        <v>579274.5433459159</v>
+        <v>579239.8054204804</v>
       </c>
       <c r="P6" t="n">
-        <v>579274.5433459157</v>
+        <v>579239.8054204804</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26966,10 +26966,10 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>73.03089870524497</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>227.7724674624578</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>102.5028759176947</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>142.3763010676207</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168073</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>97.31163646737969</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>148.0941025307854</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>16.19860367562154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>152.2454787713244</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>526.2989357561996</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>383.9182138639289</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,7 +32810,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>332.9841464938405</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2467565146293</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182644</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332982</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>328.1970178368775</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>245.091624262227</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>547.878815574799</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35267,10 +35267,10 @@
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>394.9572236728663</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37315,7 +37315,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>199.0097390795103</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.4053175402703</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383903</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112798</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
